--- a/data/standards/13CThr_standards/Concentrations.xlsx
+++ b/data/standards/13CThr_standards/Concentrations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aj286/repos/nmr-cdiff/data/standards/13CThr_standards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BF83AA-96FA-F240-AF25-D6C815FE4E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF3B49D-3BBA-3646-AD8C-268C4FFDA312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13480" yWindow="500" windowWidth="19240" windowHeight="21920" xr2:uid="{F8EB43E1-11B3-7A4F-BF06-BBC37169189F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Butyrate</t>
   </si>
@@ -44,30 +44,6 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>S2A</t>
-  </si>
-  <si>
-    <t>S2C</t>
-  </si>
-  <si>
-    <t>S3A</t>
-  </si>
-  <si>
-    <t>S3B</t>
-  </si>
-  <si>
-    <t>S3C</t>
-  </si>
-  <si>
-    <t>S4A</t>
-  </si>
-  <si>
-    <t>S4B</t>
-  </si>
-  <si>
-    <t>S4C</t>
-  </si>
-  <si>
     <t>Threonine</t>
   </si>
   <si>
@@ -83,12 +59,6 @@
     <t>2-aminobutyrate</t>
   </si>
   <si>
-    <t>S2B</t>
-  </si>
-  <si>
-    <t>S6A</t>
-  </si>
-  <si>
     <t>S6B</t>
   </si>
   <si>
@@ -102,6 +72,24 @@
   </si>
   <si>
     <t>S7C</t>
+  </si>
+  <si>
+    <t>S8A</t>
+  </si>
+  <si>
+    <t>S8B</t>
+  </si>
+  <si>
+    <t>S8C</t>
+  </si>
+  <si>
+    <t>S9A</t>
+  </si>
+  <si>
+    <t>S9B</t>
+  </si>
+  <si>
+    <t>S9C</t>
   </si>
 </sst>
 </file>
@@ -462,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26BE3B6-D274-1F4A-AD0F-BB4DC1476F56}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,142 +463,142 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -633,71 +621,71 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -705,22 +693,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -728,114 +716,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
